--- a/files/100_Sales_Records_Formula_Cross.xlsx
+++ b/files/100_Sales_Records_Formula_Cross.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wayyenlin/Code/GitHubCode/pycon2019-pyexcel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84229A4-F17B-D241-8B72-844C7929C5C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8E5BF-85EC-9844-A6FF-C4753A8493EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="24960" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="24960" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVT" sheetId="2" r:id="rId1"/>
-    <sheet name="100_Sales_Records" sheetId="1" r:id="rId2"/>
+    <sheet name="sales_records" sheetId="1" r:id="rId2"/>
     <sheet name="summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId4"/>
+    <pivotCache cacheId="35" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -937,10 +937,2120 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[100_Sales_Records_Formula_Cross.xlsx]PVT!PVT</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baby Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cereal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosmetics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fruits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Household</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Office Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Personal Care</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Snacks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vegetables</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$M$5:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PVT!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia and Oceania</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Central America and the Caribbean</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Middle East and North Africa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sub-Saharan Africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PVT!$N$5:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0D5B-4B42-9C05-C64F90690664}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1734897439"/>
+        <c:axId val="1734899119"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1734897439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1734899119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1734899119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1734897439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB01B3C-2F9A-F24C-BC26-70DCA7604CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="WayYen Lin" refreshedDate="43686.772991666665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="WayYen Lin" refreshedDate="43721.807381597224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1048576" sheet="100_Sales_Records"/>
+    <worksheetSource ref="A1:N1048576" sheet="sales_records"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Region" numFmtId="0">
@@ -2639,7 +4749,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PVT" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PVT" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -2768,6 +4878,164 @@
   <dataFields count="1">
     <dataField name="Count of Item Type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3079,7 +5347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3467,6 +5735,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7933,8 +10202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F26155B-CAC0-0947-B9F6-51CFD48D2DF8}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7946,601 +10215,601 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E2,'100_Sales_Records'!G2)</f>
+        <f>_xlfn.CONCAT(sales_records!E2,sales_records!G2)</f>
         <v>H669165933</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E3,'100_Sales_Records'!G3)</f>
+        <f>_xlfn.CONCAT(sales_records!E3,sales_records!G3)</f>
         <v>C963881480</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E4,'100_Sales_Records'!G4)</f>
+        <f>_xlfn.CONCAT(sales_records!E4,sales_records!G4)</f>
         <v>L341417157</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E5,'100_Sales_Records'!G5)</f>
+        <f>_xlfn.CONCAT(sales_records!E5,sales_records!G5)</f>
         <v>C514321792</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E6,'100_Sales_Records'!G6)</f>
+        <f>_xlfn.CONCAT(sales_records!E6,sales_records!G6)</f>
         <v>L115456712</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E7,'100_Sales_Records'!G7)</f>
+        <f>_xlfn.CONCAT(sales_records!E7,sales_records!G7)</f>
         <v>C547995746</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E8,'100_Sales_Records'!G8)</f>
+        <f>_xlfn.CONCAT(sales_records!E8,sales_records!G8)</f>
         <v>M135425221</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E9,'100_Sales_Records'!G9)</f>
+        <f>_xlfn.CONCAT(sales_records!E9,sales_records!G9)</f>
         <v>H871543967</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E10,'100_Sales_Records'!G10)</f>
+        <f>_xlfn.CONCAT(sales_records!E10,sales_records!G10)</f>
         <v>M770463311</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E11,'100_Sales_Records'!G11)</f>
+        <f>_xlfn.CONCAT(sales_records!E11,sales_records!G11)</f>
         <v>H616607081</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E12,'100_Sales_Records'!G12)</f>
+        <f>_xlfn.CONCAT(sales_records!E12,sales_records!G12)</f>
         <v>H814711606</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E13,'100_Sales_Records'!G13)</f>
+        <f>_xlfn.CONCAT(sales_records!E13,sales_records!G13)</f>
         <v>H939825713</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E14,'100_Sales_Records'!G14)</f>
+        <f>_xlfn.CONCAT(sales_records!E14,sales_records!G14)</f>
         <v>L187310731</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E15,'100_Sales_Records'!G15)</f>
+        <f>_xlfn.CONCAT(sales_records!E15,sales_records!G15)</f>
         <v>H522840487</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E16,'100_Sales_Records'!G16)</f>
+        <f>_xlfn.CONCAT(sales_records!E16,sales_records!G16)</f>
         <v>C832401311</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E17,'100_Sales_Records'!G17)</f>
+        <f>_xlfn.CONCAT(sales_records!E17,sales_records!G17)</f>
         <v>M972292029</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E18,'100_Sales_Records'!G18)</f>
+        <f>_xlfn.CONCAT(sales_records!E18,sales_records!G18)</f>
         <v>M419123971</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E19,'100_Sales_Records'!G19)</f>
+        <f>_xlfn.CONCAT(sales_records!E19,sales_records!G19)</f>
         <v>C519820964</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E20,'100_Sales_Records'!G20)</f>
+        <f>_xlfn.CONCAT(sales_records!E20,sales_records!G20)</f>
         <v>L441619336</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E21,'100_Sales_Records'!G21)</f>
+        <f>_xlfn.CONCAT(sales_records!E21,sales_records!G21)</f>
         <v>L322067916</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E22,'100_Sales_Records'!G22)</f>
+        <f>_xlfn.CONCAT(sales_records!E22,sales_records!G22)</f>
         <v>L819028031</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E23,'100_Sales_Records'!G23)</f>
+        <f>_xlfn.CONCAT(sales_records!E23,sales_records!G23)</f>
         <v>H860673511</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E24,'100_Sales_Records'!G24)</f>
+        <f>_xlfn.CONCAT(sales_records!E24,sales_records!G24)</f>
         <v>L795490682</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E25,'100_Sales_Records'!G25)</f>
+        <f>_xlfn.CONCAT(sales_records!E25,sales_records!G25)</f>
         <v>H142278373</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E26,'100_Sales_Records'!G26)</f>
+        <f>_xlfn.CONCAT(sales_records!E26,sales_records!G26)</f>
         <v>L740147912</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E27,'100_Sales_Records'!G27)</f>
+        <f>_xlfn.CONCAT(sales_records!E27,sales_records!G27)</f>
         <v>H898523128</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E28,'100_Sales_Records'!G28)</f>
+        <f>_xlfn.CONCAT(sales_records!E28,sales_records!G28)</f>
         <v>M347140347</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E29,'100_Sales_Records'!G29)</f>
+        <f>_xlfn.CONCAT(sales_records!E29,sales_records!G29)</f>
         <v>L686048400</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E30,'100_Sales_Records'!G30)</f>
+        <f>_xlfn.CONCAT(sales_records!E30,sales_records!G30)</f>
         <v>C435608613</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E31,'100_Sales_Records'!G31)</f>
+        <f>_xlfn.CONCAT(sales_records!E31,sales_records!G31)</f>
         <v>L886494815</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E32,'100_Sales_Records'!G32)</f>
+        <f>_xlfn.CONCAT(sales_records!E32,sales_records!G32)</f>
         <v>M249693334</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E33,'100_Sales_Records'!G33)</f>
+        <f>_xlfn.CONCAT(sales_records!E33,sales_records!G33)</f>
         <v>C406502997</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E34,'100_Sales_Records'!G34)</f>
+        <f>_xlfn.CONCAT(sales_records!E34,sales_records!G34)</f>
         <v>C158535134</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E35,'100_Sales_Records'!G35)</f>
+        <f>_xlfn.CONCAT(sales_records!E35,sales_records!G35)</f>
         <v>H177713572</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E36,'100_Sales_Records'!G36)</f>
+        <f>_xlfn.CONCAT(sales_records!E36,sales_records!G36)</f>
         <v>M756274640</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E37,'100_Sales_Records'!G37)</f>
+        <f>_xlfn.CONCAT(sales_records!E37,sales_records!G37)</f>
         <v>L456767165</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E38,'100_Sales_Records'!G38)</f>
+        <f>_xlfn.CONCAT(sales_records!E38,sales_records!G38)</f>
         <v>L162052476</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E39,'100_Sales_Records'!G39)</f>
+        <f>_xlfn.CONCAT(sales_records!E39,sales_records!G39)</f>
         <v>M825304400</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E40,'100_Sales_Records'!G40)</f>
+        <f>_xlfn.CONCAT(sales_records!E40,sales_records!G40)</f>
         <v>L320009267</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E41,'100_Sales_Records'!G41)</f>
+        <f>_xlfn.CONCAT(sales_records!E41,sales_records!G41)</f>
         <v>M189965903</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E42,'100_Sales_Records'!G42)</f>
+        <f>_xlfn.CONCAT(sales_records!E42,sales_records!G42)</f>
         <v>H699285638</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E43,'100_Sales_Records'!G43)</f>
+        <f>_xlfn.CONCAT(sales_records!E43,sales_records!G43)</f>
         <v>M382392299</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E44,'100_Sales_Records'!G44)</f>
+        <f>_xlfn.CONCAT(sales_records!E44,sales_records!G44)</f>
         <v>H994022214</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E45,'100_Sales_Records'!G45)</f>
+        <f>_xlfn.CONCAT(sales_records!E45,sales_records!G45)</f>
         <v>H759224212</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E46,'100_Sales_Records'!G46)</f>
+        <f>_xlfn.CONCAT(sales_records!E46,sales_records!G46)</f>
         <v>H223359620</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E47,'100_Sales_Records'!G47)</f>
+        <f>_xlfn.CONCAT(sales_records!E47,sales_records!G47)</f>
         <v>H902102267</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E48,'100_Sales_Records'!G48)</f>
+        <f>_xlfn.CONCAT(sales_records!E48,sales_records!G48)</f>
         <v>C331438481</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E49,'100_Sales_Records'!G49)</f>
+        <f>_xlfn.CONCAT(sales_records!E49,sales_records!G49)</f>
         <v>M617667090</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E50,'100_Sales_Records'!G50)</f>
+        <f>_xlfn.CONCAT(sales_records!E50,sales_records!G50)</f>
         <v>C787399423</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E51,'100_Sales_Records'!G51)</f>
+        <f>_xlfn.CONCAT(sales_records!E51,sales_records!G51)</f>
         <v>C837559306</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E52,'100_Sales_Records'!G52)</f>
+        <f>_xlfn.CONCAT(sales_records!E52,sales_records!G52)</f>
         <v>C385383069</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E53,'100_Sales_Records'!G53)</f>
+        <f>_xlfn.CONCAT(sales_records!E53,sales_records!G53)</f>
         <v>L918419539</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E54,'100_Sales_Records'!G54)</f>
+        <f>_xlfn.CONCAT(sales_records!E54,sales_records!G54)</f>
         <v>M844530045</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E55,'100_Sales_Records'!G55)</f>
+        <f>_xlfn.CONCAT(sales_records!E55,sales_records!G55)</f>
         <v>M441888415</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E56,'100_Sales_Records'!G56)</f>
+        <f>_xlfn.CONCAT(sales_records!E56,sales_records!G56)</f>
         <v>H508980977</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E57,'100_Sales_Records'!G57)</f>
+        <f>_xlfn.CONCAT(sales_records!E57,sales_records!G57)</f>
         <v>C114606559</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E58,'100_Sales_Records'!G58)</f>
+        <f>_xlfn.CONCAT(sales_records!E58,sales_records!G58)</f>
         <v>C647876489</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E59,'100_Sales_Records'!G59)</f>
+        <f>_xlfn.CONCAT(sales_records!E59,sales_records!G59)</f>
         <v>H868214595</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E60,'100_Sales_Records'!G60)</f>
+        <f>_xlfn.CONCAT(sales_records!E60,sales_records!G60)</f>
         <v>L955357205</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E61,'100_Sales_Records'!G61)</f>
+        <f>_xlfn.CONCAT(sales_records!E61,sales_records!G61)</f>
         <v>H259353148</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E62,'100_Sales_Records'!G62)</f>
+        <f>_xlfn.CONCAT(sales_records!E62,sales_records!G62)</f>
         <v>H450563752</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E63,'100_Sales_Records'!G63)</f>
+        <f>_xlfn.CONCAT(sales_records!E63,sales_records!G63)</f>
         <v>L569662845</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E64,'100_Sales_Records'!G64)</f>
+        <f>_xlfn.CONCAT(sales_records!E64,sales_records!G64)</f>
         <v>M177636754</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E65,'100_Sales_Records'!G65)</f>
+        <f>_xlfn.CONCAT(sales_records!E65,sales_records!G65)</f>
         <v>H705784308</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E66,'100_Sales_Records'!G66)</f>
+        <f>_xlfn.CONCAT(sales_records!E66,sales_records!G66)</f>
         <v>H505716836</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E67,'100_Sales_Records'!G67)</f>
+        <f>_xlfn.CONCAT(sales_records!E67,sales_records!G67)</f>
         <v>H699358165</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E68,'100_Sales_Records'!G68)</f>
+        <f>_xlfn.CONCAT(sales_records!E68,sales_records!G68)</f>
         <v>L228944623</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E69,'100_Sales_Records'!G69)</f>
+        <f>_xlfn.CONCAT(sales_records!E69,sales_records!G69)</f>
         <v>M807025039</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E70,'100_Sales_Records'!G70)</f>
+        <f>_xlfn.CONCAT(sales_records!E70,sales_records!G70)</f>
         <v>H166460740</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E71,'100_Sales_Records'!G71)</f>
+        <f>_xlfn.CONCAT(sales_records!E71,sales_records!G71)</f>
         <v>L610425555</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E72,'100_Sales_Records'!G72)</f>
+        <f>_xlfn.CONCAT(sales_records!E72,sales_records!G72)</f>
         <v>M462405812</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E73,'100_Sales_Records'!G73)</f>
+        <f>_xlfn.CONCAT(sales_records!E73,sales_records!G73)</f>
         <v>L816200339</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E74,'100_Sales_Records'!G74)</f>
+        <f>_xlfn.CONCAT(sales_records!E74,sales_records!G74)</f>
         <v>C585920464</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E75,'100_Sales_Records'!G75)</f>
+        <f>_xlfn.CONCAT(sales_records!E75,sales_records!G75)</f>
         <v>H555990016</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E76,'100_Sales_Records'!G76)</f>
+        <f>_xlfn.CONCAT(sales_records!E76,sales_records!G76)</f>
         <v>L231145322</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E77,'100_Sales_Records'!G77)</f>
+        <f>_xlfn.CONCAT(sales_records!E77,sales_records!G77)</f>
         <v>C986435210</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E78,'100_Sales_Records'!G78)</f>
+        <f>_xlfn.CONCAT(sales_records!E78,sales_records!G78)</f>
         <v>C217221009</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E79,'100_Sales_Records'!G79)</f>
+        <f>_xlfn.CONCAT(sales_records!E79,sales_records!G79)</f>
         <v>C789176547</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E80,'100_Sales_Records'!G80)</f>
+        <f>_xlfn.CONCAT(sales_records!E80,sales_records!G80)</f>
         <v>H688288152</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E81,'100_Sales_Records'!G81)</f>
+        <f>_xlfn.CONCAT(sales_records!E81,sales_records!G81)</f>
         <v>H670854651</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E82,'100_Sales_Records'!G82)</f>
+        <f>_xlfn.CONCAT(sales_records!E82,sales_records!G82)</f>
         <v>L213487374</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E83,'100_Sales_Records'!G83)</f>
+        <f>_xlfn.CONCAT(sales_records!E83,sales_records!G83)</f>
         <v>L663110148</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E84,'100_Sales_Records'!G84)</f>
+        <f>_xlfn.CONCAT(sales_records!E84,sales_records!G84)</f>
         <v>H286959302</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E85,'100_Sales_Records'!G85)</f>
+        <f>_xlfn.CONCAT(sales_records!E85,sales_records!G85)</f>
         <v>L122583663</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E86,'100_Sales_Records'!G86)</f>
+        <f>_xlfn.CONCAT(sales_records!E86,sales_records!G86)</f>
         <v>L827844560</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E87,'100_Sales_Records'!G87)</f>
+        <f>_xlfn.CONCAT(sales_records!E87,sales_records!G87)</f>
         <v>L430915820</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E88,'100_Sales_Records'!G88)</f>
+        <f>_xlfn.CONCAT(sales_records!E88,sales_records!G88)</f>
         <v>C180283772</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E89,'100_Sales_Records'!G89)</f>
+        <f>_xlfn.CONCAT(sales_records!E89,sales_records!G89)</f>
         <v>M494747245</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E90,'100_Sales_Records'!G90)</f>
+        <f>_xlfn.CONCAT(sales_records!E90,sales_records!G90)</f>
         <v>M513417565</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E91,'100_Sales_Records'!G91)</f>
+        <f>_xlfn.CONCAT(sales_records!E91,sales_records!G91)</f>
         <v>C345718562</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E92,'100_Sales_Records'!G92)</f>
+        <f>_xlfn.CONCAT(sales_records!E92,sales_records!G92)</f>
         <v>H621386563</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E93,'100_Sales_Records'!G93)</f>
+        <f>_xlfn.CONCAT(sales_records!E93,sales_records!G93)</f>
         <v>H240470397</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E94,'100_Sales_Records'!G94)</f>
+        <f>_xlfn.CONCAT(sales_records!E94,sales_records!G94)</f>
         <v>M423331391</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E95,'100_Sales_Records'!G95)</f>
+        <f>_xlfn.CONCAT(sales_records!E95,sales_records!G95)</f>
         <v>H660643374</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E96,'100_Sales_Records'!G96)</f>
+        <f>_xlfn.CONCAT(sales_records!E96,sales_records!G96)</f>
         <v>C963392674</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E97,'100_Sales_Records'!G97)</f>
+        <f>_xlfn.CONCAT(sales_records!E97,sales_records!G97)</f>
         <v>M512878119</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E98,'100_Sales_Records'!G98)</f>
+        <f>_xlfn.CONCAT(sales_records!E98,sales_records!G98)</f>
         <v>L810711038</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E99,'100_Sales_Records'!G99)</f>
+        <f>_xlfn.CONCAT(sales_records!E99,sales_records!G99)</f>
         <v>C728815257</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E100,'100_Sales_Records'!G100)</f>
+        <f>_xlfn.CONCAT(sales_records!E100,sales_records!G100)</f>
         <v>M559427106</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f>_xlfn.CONCAT('100_Sales_Records'!E101,'100_Sales_Records'!G101)</f>
+        <f>_xlfn.CONCAT(sales_records!E101,sales_records!G101)</f>
         <v>L665095412</v>
       </c>
     </row>
